--- a/biology/Zoologie/Conus_primus/Conus_primus.xlsx
+++ b/biology/Zoologie/Conus_primus/Conus_primus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus primus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 45 mm et 103 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Saya de Malha, dans l'océan Indien occidental.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce existe dans une large gamme dans un endroit éloigné sur le banc de Saya de Malha. Il peut y avoir une menace pour la population due au dragage et/ou au chalutage, mais cela peut ne pas être étendu. Elle est considérée comme étant de préoccupation mineure à l'heure actuelle[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce existe dans une large gamme dans un endroit éloigné sur le banc de Saya de Malha. Il peut y avoir une menace pour la population due au dragage et/ou au chalutage, mais cela peut ne pas être étendu. Elle est considérée comme étant de préoccupation mineure à l'heure actuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_primus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_primus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus primus a été décrite pour la première fois en 1990 par les malacologistes Dieter Röckel (d)[2] et Werner Korn[3] dans « Acta Conchyliorum »[4],[5].
-Synonymes
-Asprella prima (Röckel &amp; Korn, 1990) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus primus a été décrite pour la première fois en 1990 par les malacologistes Dieter Röckel (d) et Werner Korn dans « Acta Conchyliorum »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_primus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_primus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asprella prima (Röckel &amp; Korn, 1990) · non accepté
 Conus (Phasmoconus) primus Röckel &amp; Korn, 1990 · appellation alternative
 Graphiconus primus (Röckel &amp; Korn, 1990) · non accepté
 Phasmoconus primus (Röckel &amp; Korn, 1990) · non accepté</t>
